--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H2">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I2">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J2">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>0.07536631992933332</v>
+        <v>0.8323246691173334</v>
       </c>
       <c r="R2">
-        <v>0.6782968793639998</v>
+        <v>7.490922022056</v>
       </c>
       <c r="S2">
-        <v>8.503764779555172E-07</v>
+        <v>9.440629975566313E-06</v>
       </c>
       <c r="T2">
-        <v>8.516710780649162E-07</v>
+        <v>9.464527856073207E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H3">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I3">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J3">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
-        <v>0.05941105096533332</v>
+        <v>0.1626819027626667</v>
       </c>
       <c r="R3">
-        <v>0.5346994586879998</v>
+        <v>1.464137124864</v>
       </c>
       <c r="S3">
-        <v>6.703493061477227E-07</v>
+        <v>1.845217022501696E-06</v>
       </c>
       <c r="T3">
-        <v>6.713698356515031E-07</v>
+        <v>1.849887979421643E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H4">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I4">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J4">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>52.00878752923933</v>
+        <v>195.1598309779467</v>
       </c>
       <c r="R4">
-        <v>468.079087763154</v>
+        <v>1756.43847880152</v>
       </c>
       <c r="S4">
-        <v>0.0005868277713880754</v>
+        <v>0.002213597432250479</v>
       </c>
       <c r="T4">
-        <v>0.0005877211489881519</v>
+        <v>0.002219200902258646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H5">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I5">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J5">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>0.320025996414</v>
+        <v>1.751789159152</v>
       </c>
       <c r="R5">
-        <v>1.920155978484</v>
+        <v>10.510734954912</v>
       </c>
       <c r="S5">
-        <v>3.610930982697772E-06</v>
+        <v>1.986964205242258E-05</v>
       </c>
       <c r="T5">
-        <v>2.410952139101138E-06</v>
+        <v>1.327995986016997E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5236729999999999</v>
+        <v>1.433944</v>
       </c>
       <c r="H6">
-        <v>1.571019</v>
+        <v>4.301832</v>
       </c>
       <c r="I6">
-        <v>0.001411687926676083</v>
+        <v>0.003882998715548277</v>
       </c>
       <c r="J6">
-        <v>0.001412631582657676</v>
+        <v>0.003886188105009087</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>72.65008131842166</v>
+        <v>144.4344701740054</v>
       </c>
       <c r="R6">
-        <v>653.8507318657948</v>
+        <v>1299.910231566048</v>
       </c>
       <c r="S6">
-        <v>0.000819728498521207</v>
+        <v>0.001638245794247308</v>
       </c>
       <c r="T6">
-        <v>0.0008209764406167062</v>
+        <v>0.001642392827054776</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I7">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J7">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>41.86560840080667</v>
+        <v>168.8499186424784</v>
       </c>
       <c r="R7">
-        <v>376.79047560726</v>
+        <v>1519.649267782305</v>
       </c>
       <c r="S7">
-        <v>0.0004723798196956465</v>
+        <v>0.001915177649364373</v>
       </c>
       <c r="T7">
-        <v>0.0004730989634891417</v>
+        <v>0.001920025703650204</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I8">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J8">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
         <v>33.00253742954667</v>
@@ -948,10 +948,10 @@
         <v>297.02283686592</v>
       </c>
       <c r="S8">
-        <v>0.0003723756390022436</v>
+        <v>0.0003743307818300481</v>
       </c>
       <c r="T8">
-        <v>0.000372942537964629</v>
+        <v>0.000375278357608082</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I9">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J9">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>28890.61764116246</v>
+        <v>39591.18695574883</v>
       </c>
       <c r="R9">
-        <v>260015.5587704621</v>
+        <v>356320.6826017394</v>
       </c>
       <c r="S9">
-        <v>0.325979850133152</v>
+        <v>0.4490624394673592</v>
       </c>
       <c r="T9">
-        <v>0.3264761168580489</v>
+        <v>0.4501991899327732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I10">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J10">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>177.7728175730101</v>
+        <v>355.37749627831</v>
       </c>
       <c r="R10">
-        <v>1066.63690543806</v>
+        <v>2132.26497766986</v>
       </c>
       <c r="S10">
-        <v>0.002005853843277899</v>
+        <v>0.004030863878592747</v>
       </c>
       <c r="T10">
-        <v>0.00133927168293924</v>
+        <v>0.00269404503454526</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>872.6930850000001</v>
       </c>
       <c r="I11">
-        <v>0.7841854820267643</v>
+        <v>0.7877262822264709</v>
       </c>
       <c r="J11">
-        <v>0.78470967813754</v>
+        <v>0.7883732991550308</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>40356.75163144066</v>
+        <v>29300.763804001</v>
       </c>
       <c r="R11">
-        <v>363210.7646829659</v>
+        <v>263706.874236009</v>
       </c>
       <c r="S11">
-        <v>0.4553550225916365</v>
+        <v>0.3323434704493244</v>
       </c>
       <c r="T11">
-        <v>0.4560482480950981</v>
+        <v>0.3331847601264541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H12">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I12">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J12">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>5.567384481677777</v>
+        <v>31.75457691014522</v>
       </c>
       <c r="R12">
-        <v>50.1064603351</v>
+        <v>285.791192191307</v>
       </c>
       <c r="S12">
-        <v>6.281815022137873E-05</v>
+        <v>0.0003601758085066228</v>
       </c>
       <c r="T12">
-        <v>6.291378360995078E-05</v>
+        <v>0.0003610875525804233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H13">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I13">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J13">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>4.388753006577777</v>
+        <v>6.206586425756443</v>
       </c>
       <c r="R13">
-        <v>39.49877705919999</v>
+        <v>55.85927783180799</v>
       </c>
       <c r="S13">
-        <v>4.951936525293614E-05</v>
+        <v>7.039811269690868E-05</v>
       </c>
       <c r="T13">
-        <v>4.959475277521093E-05</v>
+        <v>7.057631750839857E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H14">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I14">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J14">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>3841.940496400261</v>
+        <v>7445.673656569855</v>
       </c>
       <c r="R14">
-        <v>34577.46446760235</v>
+        <v>67011.06290912868</v>
       </c>
       <c r="S14">
-        <v>0.04334954699800778</v>
+        <v>0.08445244087867917</v>
       </c>
       <c r="T14">
-        <v>0.04341554168358628</v>
+        <v>0.08466622262267906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H15">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I15">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J15">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>23.64063639885</v>
+        <v>66.83368359566066</v>
       </c>
       <c r="R15">
-        <v>141.8438183931</v>
+        <v>401.002101573964</v>
       </c>
       <c r="S15">
-        <v>0.0002667430376901898</v>
+        <v>0.0007580600457268951</v>
       </c>
       <c r="T15">
-        <v>0.0001780994154668188</v>
+        <v>0.0005066526589805564</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.68424166666667</v>
+        <v>54.70735966666666</v>
       </c>
       <c r="H16">
-        <v>116.052725</v>
+        <v>164.122079</v>
       </c>
       <c r="I16">
-        <v>0.1042827812651277</v>
+        <v>0.1481428893434501</v>
       </c>
       <c r="J16">
-        <v>0.1043524900644015</v>
+        <v>0.1482645698807303</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>5366.73325305068</v>
+        <v>5510.416381723239</v>
       </c>
       <c r="R16">
-        <v>48300.59927745612</v>
+        <v>49593.74743550915</v>
       </c>
       <c r="S16">
-        <v>0.06055415371395543</v>
+        <v>0.06250181449784054</v>
       </c>
       <c r="T16">
-        <v>0.06064634042896327</v>
+        <v>0.06266003072898181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H17">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I17">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J17">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>0.1069903601086667</v>
+        <v>0.527752757642</v>
       </c>
       <c r="R17">
-        <v>0.6419421606519999</v>
+        <v>3.166516545852</v>
       </c>
       <c r="S17">
-        <v>1.207198197944508E-06</v>
+        <v>5.986027674472889E-06</v>
       </c>
       <c r="T17">
-        <v>8.060240119790052E-07</v>
+        <v>4.000787081575754E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H18">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I18">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J18">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>0.08434018993066666</v>
+        <v>0.103151842048</v>
       </c>
       <c r="R18">
-        <v>0.506041139584</v>
+        <v>0.6189110522879999</v>
       </c>
       <c r="S18">
-        <v>9.516308309943788E-07</v>
+        <v>1.169998208879173E-06</v>
       </c>
       <c r="T18">
-        <v>6.3538638611873E-07</v>
+        <v>7.819732841383416E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H19">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I19">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J19">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>73.83190411560366</v>
+        <v>123.74514753814</v>
       </c>
       <c r="R19">
-        <v>442.991424693622</v>
+        <v>742.47088522884</v>
       </c>
       <c r="S19">
-        <v>0.0008330632919511834</v>
+        <v>0.001403577465051386</v>
       </c>
       <c r="T19">
-        <v>0.0005562210231544731</v>
+        <v>0.0009380869744580497</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H20">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I20">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J20">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>0.4543103157030001</v>
+        <v>1.110758330076</v>
       </c>
       <c r="R20">
-        <v>1.817241262812</v>
+        <v>4.443033320303999</v>
       </c>
       <c r="S20">
-        <v>5.126093545878586E-06</v>
+        <v>1.259875956535804E-05</v>
       </c>
       <c r="T20">
-        <v>2.281732192037103E-06</v>
+        <v>5.613623062910622E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7434085</v>
+        <v>0.909222</v>
       </c>
       <c r="H21">
-        <v>1.486817</v>
+        <v>1.818444</v>
       </c>
       <c r="I21">
-        <v>0.002004038405719556</v>
+        <v>0.002462096049879378</v>
       </c>
       <c r="J21">
-        <v>0.001336918682608127</v>
+        <v>0.001642745565709015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N21">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O21">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P21">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q21">
-        <v>103.1343757990308</v>
+        <v>91.58167811333601</v>
       </c>
       <c r="R21">
-        <v>618.806254794185</v>
+        <v>549.4900686800161</v>
       </c>
       <c r="S21">
-        <v>0.001163690191193555</v>
+        <v>0.001038763799379282</v>
       </c>
       <c r="T21">
-        <v>0.0007769745168635195</v>
+        <v>0.0006942622078223407</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H22">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I22">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J22">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N22">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O22">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P22">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q22">
-        <v>5.772030541229333</v>
+        <v>12.38642996701122</v>
       </c>
       <c r="R22">
-        <v>51.948274871064</v>
+        <v>111.477869703101</v>
       </c>
       <c r="S22">
-        <v>6.512722137560387E-05</v>
+        <v>0.0001404928946306823</v>
       </c>
       <c r="T22">
-        <v>6.52263700586912E-05</v>
+        <v>0.0001408485364063521</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H23">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I23">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J23">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.340352</v>
       </c>
       <c r="O23">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P23">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q23">
-        <v>4.550074900565333</v>
+        <v>2.420987951260444</v>
       </c>
       <c r="R23">
-        <v>40.950674105088</v>
+        <v>21.788891561344</v>
       </c>
       <c r="S23">
-        <v>5.133959933302497E-05</v>
+        <v>2.746001923431185E-05</v>
       </c>
       <c r="T23">
-        <v>5.141775795174976E-05</v>
+        <v>2.752953114824949E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H24">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I24">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J24">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N24">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O24">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P24">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q24">
-        <v>3983.162642312289</v>
+        <v>2904.315669684075</v>
       </c>
       <c r="R24">
-        <v>35848.46378081061</v>
+        <v>26138.84102715667</v>
       </c>
       <c r="S24">
-        <v>0.04494299074267508</v>
+        <v>0.03294215657311151</v>
       </c>
       <c r="T24">
-        <v>0.04501141126257478</v>
+        <v>0.03302554589389425</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H25">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I25">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J25">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1984,28 +1984,28 @@
         <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N25">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O25">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P25">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q25">
-        <v>24.509619509364</v>
+        <v>26.06965111320867</v>
       </c>
       <c r="R25">
-        <v>147.057717056184</v>
+        <v>156.417906679252</v>
       </c>
       <c r="S25">
-        <v>0.0002765479850143342</v>
+        <v>0.000295694623605129</v>
       </c>
       <c r="T25">
-        <v>0.0001846459982838791</v>
+        <v>0.0001976287605978997</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.106198</v>
+        <v>21.33956566666667</v>
       </c>
       <c r="H26">
-        <v>120.318594</v>
+        <v>64.018697</v>
       </c>
       <c r="I26">
-        <v>0.1081160103757125</v>
+        <v>0.05778573366465133</v>
       </c>
       <c r="J26">
-        <v>0.1081882815327926</v>
+        <v>0.05783319729352075</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N26">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O26">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P26">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q26">
-        <v>5564.003769666796</v>
+        <v>2149.434608888768</v>
       </c>
       <c r="R26">
-        <v>50076.03392700117</v>
+        <v>19344.91147999891</v>
       </c>
       <c r="S26">
-        <v>0.06278000482731444</v>
+        <v>0.02437992955406969</v>
       </c>
       <c r="T26">
-        <v>0.06287558014392353</v>
+        <v>0.024441644571474</v>
       </c>
     </row>
   </sheetData>
